--- a/REGULAR/ACCOUNTING/MIRANDA, MARIA LOIDA.xlsx
+++ b/REGULAR/ACCOUNTING/MIRANDA, MARIA LOIDA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="418">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1273,9 +1273,6 @@
   </si>
   <si>
     <t>UT(0-2-56)</t>
-  </si>
-  <si>
-    <t>A(1-0-0)</t>
   </si>
   <si>
     <t>UT(0-1-2)</t>
@@ -2178,7 +2175,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2221,7 +2218,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2285,7 +2282,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2345,7 +2342,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2411,7 +2408,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2474,7 +2471,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2572,7 +2569,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2631,7 +2628,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2696,7 +2693,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2739,7 +2736,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2814,7 +2811,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3000,7 +2997,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3066,7 +3063,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3124,7 +3121,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3190,7 +3187,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3246,7 +3243,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3321,7 +3318,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3364,7 +3361,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3430,7 +3427,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3486,7 +3483,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3584,7 +3581,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3647,7 +3644,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3713,7 +3710,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K633" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K634" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4091,12 +4088,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K633"/>
+  <dimension ref="A2:K634"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A597" activePane="bottomLeft"/>
-      <selection activeCell="F8" sqref="F8"/>
-      <selection pane="bottomLeft" activeCell="E605" sqref="E605"/>
+      <pane ySplit="3690" topLeftCell="A612" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="C632" sqref="C632"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4263,7 +4260,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>119.70499999999993</v>
+        <v>125.45499999999993</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4273,7 +4270,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>97.776000000000025</v>
+        <v>98.526000000000025</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17500,15 +17497,11 @@
       <c r="A599" s="39">
         <v>44652</v>
       </c>
-      <c r="B599" s="20" t="s">
-        <v>413</v>
-      </c>
+      <c r="B599" s="20"/>
       <c r="C599" s="13">
         <v>1.25</v>
       </c>
-      <c r="D599" s="38">
-        <v>1</v>
-      </c>
+      <c r="D599" s="38"/>
       <c r="E599" s="9"/>
       <c r="F599" s="20"/>
       <c r="G599" s="13">
@@ -17518,14 +17511,12 @@
       <c r="H599" s="38"/>
       <c r="I599" s="9"/>
       <c r="J599" s="11"/>
-      <c r="K599" s="47">
-        <v>44677</v>
-      </c>
+      <c r="K599" s="47"/>
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="39"/>
       <c r="B600" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C600" s="13"/>
       <c r="D600" s="38">
@@ -17571,7 +17562,7 @@
         <v>44713</v>
       </c>
       <c r="B602" s="20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C602" s="13">
         <v>1.25</v>
@@ -17663,7 +17654,7 @@
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="39"/>
       <c r="B606" s="20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C606" s="13"/>
       <c r="D606" s="38">
@@ -17731,7 +17722,7 @@
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="39"/>
       <c r="B609" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C609" s="13"/>
       <c r="D609" s="38">
@@ -17799,7 +17790,7 @@
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="39"/>
       <c r="B612" s="20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C612" s="13"/>
       <c r="D612" s="38">
@@ -17845,12 +17836,10 @@
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="39"/>
       <c r="B614" s="20" t="s">
-        <v>413</v>
+        <v>54</v>
       </c>
       <c r="C614" s="13"/>
-      <c r="D614" s="38">
-        <v>1</v>
-      </c>
+      <c r="D614" s="38"/>
       <c r="E614" s="9"/>
       <c r="F614" s="20"/>
       <c r="G614" s="13" t="str">
@@ -17861,7 +17850,7 @@
       <c r="I614" s="9"/>
       <c r="J614" s="11"/>
       <c r="K614" s="47">
-        <v>45232</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
@@ -18151,13 +18140,15 @@
       <c r="B627" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C627" s="13"/>
+      <c r="C627" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D627" s="38"/>
       <c r="E627" s="9"/>
       <c r="F627" s="20"/>
-      <c r="G627" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G627" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H627" s="38">
         <v>1</v>
@@ -18191,10 +18182,10 @@
       </c>
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A629" s="39">
-        <v>45139</v>
-      </c>
-      <c r="B629" s="20"/>
+      <c r="A629" s="39"/>
+      <c r="B629" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C629" s="13"/>
       <c r="D629" s="38"/>
       <c r="E629" s="9"/>
@@ -18203,52 +18194,72 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H629" s="38"/>
+      <c r="H629" s="38">
+        <v>1</v>
+      </c>
       <c r="I629" s="9"/>
       <c r="J629" s="11"/>
-      <c r="K629" s="20"/>
+      <c r="K629" s="47">
+        <v>45134</v>
+      </c>
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="39">
-        <v>45170</v>
-      </c>
-      <c r="B630" s="20"/>
-      <c r="C630" s="13"/>
+        <v>45139</v>
+      </c>
+      <c r="B630" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C630" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D630" s="38"/>
       <c r="E630" s="9"/>
       <c r="F630" s="20"/>
-      <c r="G630" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H630" s="38"/>
+      <c r="G630" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H630" s="38">
+        <v>1</v>
+      </c>
       <c r="I630" s="9"/>
       <c r="J630" s="11"/>
-      <c r="K630" s="20"/>
+      <c r="K630" s="47">
+        <v>45142</v>
+      </c>
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="39">
-        <v>45200</v>
-      </c>
-      <c r="B631" s="20"/>
-      <c r="C631" s="13"/>
+        <v>45170</v>
+      </c>
+      <c r="B631" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C631" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D631" s="38"/>
       <c r="E631" s="9"/>
       <c r="F631" s="20"/>
-      <c r="G631" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G631" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H631" s="38"/>
       <c r="I631" s="9"/>
       <c r="J631" s="11"/>
-      <c r="K631" s="20"/>
+      <c r="K631" s="47">
+        <v>45203</v>
+      </c>
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="39">
-        <v>45231</v>
-      </c>
-      <c r="B632" s="20"/>
+        <v>45200</v>
+      </c>
+      <c r="B632" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C632" s="13"/>
       <c r="D632" s="38"/>
       <c r="E632" s="9"/>
@@ -18257,28 +18268,50 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H632" s="38"/>
+      <c r="H632" s="38">
+        <v>1</v>
+      </c>
       <c r="I632" s="9"/>
       <c r="J632" s="11"/>
-      <c r="K632" s="20"/>
+      <c r="K632" s="47">
+        <v>45227</v>
+      </c>
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="39">
+        <v>45231</v>
+      </c>
+      <c r="B633" s="20"/>
+      <c r="C633" s="13"/>
+      <c r="D633" s="38"/>
+      <c r="E633" s="9"/>
+      <c r="F633" s="20"/>
+      <c r="G633" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H633" s="38"/>
+      <c r="I633" s="9"/>
+      <c r="J633" s="11"/>
+      <c r="K633" s="20"/>
+    </row>
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A634" s="39">
         <v>45261</v>
       </c>
-      <c r="B633" s="15"/>
-      <c r="C633" s="40"/>
-      <c r="D633" s="41"/>
-      <c r="E633" s="51"/>
-      <c r="F633" s="15"/>
-      <c r="G633" s="40" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H633" s="41"/>
-      <c r="I633" s="51"/>
-      <c r="J633" s="12"/>
-      <c r="K633" s="15"/>
+      <c r="B634" s="15"/>
+      <c r="C634" s="40"/>
+      <c r="D634" s="41"/>
+      <c r="E634" s="51"/>
+      <c r="F634" s="15"/>
+      <c r="G634" s="40" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H634" s="41"/>
+      <c r="I634" s="51"/>
+      <c r="J634" s="12"/>
+      <c r="K634" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18326,7 +18359,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18397,11 +18430,11 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.22500000000000001</v>
+        <v>0.127</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="34">
@@ -18424,7 +18457,7 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>411</v>
       </c>
       <c r="C6" s="37" t="s">
@@ -18448,9 +18481,9 @@
       <c r="L6" s="64"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>217.48099999999994</v>
+        <v>223.98099999999994</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>

--- a/REGULAR/ACCOUNTING/MIRANDA, MARIA LOIDA.xlsx
+++ b/REGULAR/ACCOUNTING/MIRANDA, MARIA LOIDA.xlsx
@@ -1694,6 +1694,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1729,9 +1732,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2181,7 +2181,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2224,7 +2224,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2288,7 +2288,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2348,7 +2348,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2414,7 +2414,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2477,7 +2477,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2575,7 +2575,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2634,7 +2634,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2699,7 +2699,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2742,7 +2742,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2817,7 +2817,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3003,7 +3003,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3069,7 +3069,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3127,7 +3127,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3193,7 +3193,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3249,7 +3249,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3324,7 +3324,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3367,7 +3367,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3433,7 +3433,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3489,7 +3489,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3587,7 +3587,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3650,7 +3650,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4099,7 +4099,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A625" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="D638" sqref="D638"/>
+      <selection pane="bottomLeft" activeCell="C639" sqref="C639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4121,68 +4121,68 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="55" t="s">
         <v>406</v>
       </c>
-      <c r="C2" s="54"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="62" t="s">
         <v>408</v>
       </c>
-      <c r="G2" s="61"/>
+      <c r="G2" s="62"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>407</v>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="62">
+      <c r="F3" s="63">
         <v>35796</v>
       </c>
-      <c r="G3" s="59"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="59"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="61"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -4208,18 +4208,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4266,7 +4266,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>122.70499999999993</v>
+        <v>125.20499999999993</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4276,7 +4276,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>99.776000000000025</v>
+        <v>102.27600000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -18332,13 +18332,15 @@
       <c r="B635" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C635" s="13"/>
+      <c r="C635" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D635" s="38"/>
       <c r="E635" s="9"/>
       <c r="F635" s="20"/>
-      <c r="G635" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G635" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H635" s="38">
         <v>1</v>
@@ -18356,19 +18358,21 @@
       <c r="B636" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C636" s="40"/>
+      <c r="C636" s="40">
+        <v>1.25</v>
+      </c>
       <c r="D636" s="41"/>
       <c r="E636" s="51"/>
       <c r="F636" s="15"/>
-      <c r="G636" s="40" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G636" s="40">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H636" s="41"/>
       <c r="I636" s="51"/>
       <c r="J636" s="12"/>
       <c r="K636" s="48">
-        <v>45266</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
@@ -18580,7 +18584,7 @@
       <c r="K649" s="20"/>
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A650" s="65"/>
+      <c r="A650" s="53"/>
       <c r="B650" s="15"/>
       <c r="C650" s="40"/>
       <c r="D650" s="41"/>
@@ -18659,17 +18663,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="J1" s="64" t="s">
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="J1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -18755,17 +18759,17 @@
         <v>30</v>
       </c>
       <c r="G6" s="42"/>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>222.48099999999994</v>
+        <v>227.48099999999994</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>

--- a/REGULAR/ACCOUNTING/MIRANDA, MARIA LOIDA.xlsx
+++ b/REGULAR/ACCOUNTING/MIRANDA, MARIA LOIDA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="422">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1291,6 +1291,15 @@
   </si>
   <si>
     <t>10/13 , 11/3/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-1-59)</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -3716,7 +3725,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K650" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K652" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4094,12 +4103,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K650"/>
+  <dimension ref="A2:K652"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A625" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A616" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="C639" sqref="C639"/>
+      <selection pane="bottomLeft" activeCell="F638" sqref="F638"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4266,7 +4275,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>125.20499999999993</v>
+        <v>124.83999999999992</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -18265,11 +18274,15 @@
       <c r="A632" s="39">
         <v>45200</v>
       </c>
-      <c r="B632" s="20"/>
+      <c r="B632" s="20" t="s">
+        <v>420</v>
+      </c>
       <c r="C632" s="13">
         <v>1.25</v>
       </c>
-      <c r="D632" s="38"/>
+      <c r="D632" s="38">
+        <v>0.248</v>
+      </c>
       <c r="E632" s="9"/>
       <c r="F632" s="20"/>
       <c r="G632" s="13">
@@ -18352,52 +18365,60 @@
       </c>
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A636" s="39">
+      <c r="A636" s="39"/>
+      <c r="B636" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C636" s="13"/>
+      <c r="D636" s="38">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="E636" s="9"/>
+      <c r="F636" s="20"/>
+      <c r="G636" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H636" s="38"/>
+      <c r="I636" s="9"/>
+      <c r="J636" s="11"/>
+      <c r="K636" s="47"/>
+    </row>
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A637" s="39">
         <v>45261</v>
       </c>
-      <c r="B636" s="20" t="s">
+      <c r="B637" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C636" s="40">
-        <v>1.25</v>
-      </c>
-      <c r="D636" s="41"/>
-      <c r="E636" s="51"/>
-      <c r="F636" s="15"/>
-      <c r="G636" s="40">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H636" s="41"/>
-      <c r="I636" s="51"/>
-      <c r="J636" s="12"/>
-      <c r="K636" s="48">
+      <c r="C637" s="40">
+        <v>1.25</v>
+      </c>
+      <c r="D637" s="41"/>
+      <c r="E637" s="51"/>
+      <c r="F637" s="15"/>
+      <c r="G637" s="40">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H637" s="41"/>
+      <c r="I637" s="51"/>
+      <c r="J637" s="12"/>
+      <c r="K637" s="48">
         <v>45288</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A637" s="39"/>
-      <c r="B637" s="20"/>
-      <c r="C637" s="13"/>
-      <c r="D637" s="38"/>
-      <c r="E637" s="9"/>
-      <c r="F637" s="20"/>
-      <c r="G637" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H637" s="38"/>
-      <c r="I637" s="9"/>
-      <c r="J637" s="11"/>
-      <c r="K637" s="20"/>
-    </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A638" s="39"/>
+      <c r="A638" s="46" t="s">
+        <v>419</v>
+      </c>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
       <c r="D638" s="38"/>
       <c r="E638" s="9"/>
-      <c r="F638" s="20"/>
+      <c r="F638" s="20" t="s">
+        <v>421</v>
+      </c>
       <c r="G638" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -18405,10 +18426,12 @@
       <c r="H638" s="38"/>
       <c r="I638" s="9"/>
       <c r="J638" s="11"/>
-      <c r="K638" s="20"/>
+      <c r="K638" s="47"/>
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A639" s="39"/>
+      <c r="A639" s="39">
+        <v>45292</v>
+      </c>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
       <c r="D639" s="38"/>
@@ -18424,7 +18447,9 @@
       <c r="K639" s="20"/>
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A640" s="39"/>
+      <c r="A640" s="39">
+        <v>45323</v>
+      </c>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
       <c r="D640" s="38"/>
@@ -18440,7 +18465,9 @@
       <c r="K640" s="20"/>
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A641" s="39"/>
+      <c r="A641" s="39">
+        <v>45352</v>
+      </c>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
       <c r="D641" s="38"/>
@@ -18456,7 +18483,9 @@
       <c r="K641" s="20"/>
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A642" s="39"/>
+      <c r="A642" s="39">
+        <v>45383</v>
+      </c>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
       <c r="D642" s="38"/>
@@ -18472,7 +18501,9 @@
       <c r="K642" s="20"/>
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A643" s="39"/>
+      <c r="A643" s="39">
+        <v>45413</v>
+      </c>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
       <c r="D643" s="38"/>
@@ -18488,7 +18519,9 @@
       <c r="K643" s="20"/>
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A644" s="39"/>
+      <c r="A644" s="39">
+        <v>45444</v>
+      </c>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
       <c r="D644" s="38"/>
@@ -18504,7 +18537,9 @@
       <c r="K644" s="20"/>
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A645" s="39"/>
+      <c r="A645" s="39">
+        <v>45474</v>
+      </c>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
       <c r="D645" s="38"/>
@@ -18520,7 +18555,9 @@
       <c r="K645" s="20"/>
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A646" s="39"/>
+      <c r="A646" s="39">
+        <v>45505</v>
+      </c>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
       <c r="D646" s="38"/>
@@ -18584,20 +18621,52 @@
       <c r="K649" s="20"/>
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A650" s="53"/>
-      <c r="B650" s="15"/>
-      <c r="C650" s="40"/>
-      <c r="D650" s="41"/>
-      <c r="E650" s="51"/>
-      <c r="F650" s="15"/>
-      <c r="G650" s="40" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H650" s="41"/>
-      <c r="I650" s="51"/>
-      <c r="J650" s="12"/>
-      <c r="K650" s="15"/>
+      <c r="A650" s="39"/>
+      <c r="B650" s="20"/>
+      <c r="C650" s="13"/>
+      <c r="D650" s="38"/>
+      <c r="E650" s="9"/>
+      <c r="F650" s="20"/>
+      <c r="G650" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H650" s="38"/>
+      <c r="I650" s="9"/>
+      <c r="J650" s="11"/>
+      <c r="K650" s="20"/>
+    </row>
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A651" s="39"/>
+      <c r="B651" s="20"/>
+      <c r="C651" s="13"/>
+      <c r="D651" s="38"/>
+      <c r="E651" s="9"/>
+      <c r="F651" s="20"/>
+      <c r="G651" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H651" s="38"/>
+      <c r="I651" s="9"/>
+      <c r="J651" s="11"/>
+      <c r="K651" s="20"/>
+    </row>
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A652" s="53"/>
+      <c r="B652" s="15"/>
+      <c r="C652" s="40"/>
+      <c r="D652" s="41"/>
+      <c r="E652" s="51"/>
+      <c r="F652" s="15"/>
+      <c r="G652" s="40" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H652" s="41"/>
+      <c r="I652" s="51"/>
+      <c r="J652" s="12"/>
+      <c r="K652" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18645,7 +18714,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18716,11 +18785,11 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.127</v>
+        <v>0.248</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="34">
@@ -18769,7 +18838,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>227.48099999999994</v>
+        <v>227.11599999999993</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>

--- a/REGULAR/ACCOUNTING/MIRANDA, MARIA LOIDA.xlsx
+++ b/REGULAR/ACCOUNTING/MIRANDA, MARIA LOIDA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="430">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1299,7 +1299,31 @@
     <t>UT(0-1-59)</t>
   </si>
   <si>
-    <t>s</t>
+    <t>A(2-0-0)</t>
+  </si>
+  <si>
+    <t>9/4,28/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-14)</t>
+  </si>
+  <si>
+    <t>UT( 0-1-1)</t>
+  </si>
+  <si>
+    <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-4-2)</t>
+  </si>
+  <si>
+    <t>UT(0-0-12)</t>
+  </si>
+  <si>
+    <t>UT(0-3-7)</t>
+  </si>
+  <si>
+    <t>UT(0-1-9)</t>
   </si>
 </sst>
 </file>
@@ -3725,7 +3749,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K652" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K660" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4103,12 +4127,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K652"/>
+  <dimension ref="A2:K660"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A616" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A625" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="F638" sqref="F638"/>
+      <selection pane="bottomLeft" activeCell="F649" sqref="F649"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4275,7 +4299,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>124.83999999999992</v>
+        <v>120.62099999999992</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -17957,35 +17981,31 @@
       </c>
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A619" s="39">
-        <v>44958</v>
-      </c>
+      <c r="A619" s="39"/>
       <c r="B619" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C619" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D619" s="38"/>
+        <v>428</v>
+      </c>
+      <c r="C619" s="13"/>
+      <c r="D619" s="38">
+        <v>0.39</v>
+      </c>
       <c r="E619" s="9"/>
       <c r="F619" s="20"/>
-      <c r="G619" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G619" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H619" s="38"/>
       <c r="I619" s="9"/>
       <c r="J619" s="11"/>
-      <c r="K619" s="47">
-        <v>44967</v>
-      </c>
+      <c r="K619" s="20"/>
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="39">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B620" s="20" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C620" s="13">
         <v>1.25</v>
@@ -17997,113 +18017,109 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H620" s="38">
-        <v>1</v>
-      </c>
+      <c r="H620" s="38"/>
       <c r="I620" s="9"/>
       <c r="J620" s="11"/>
       <c r="K620" s="47">
-        <v>44987</v>
+        <v>44967</v>
       </c>
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A621" s="39">
-        <v>45017</v>
-      </c>
+      <c r="A621" s="39"/>
       <c r="B621" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="C621" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D621" s="38"/>
+        <v>427</v>
+      </c>
+      <c r="C621" s="13"/>
+      <c r="D621" s="38">
+        <v>2.5000000000000008E-2</v>
+      </c>
       <c r="E621" s="9"/>
       <c r="F621" s="20"/>
-      <c r="G621" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H621" s="38">
-        <v>3</v>
-      </c>
+      <c r="G621" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H621" s="38"/>
       <c r="I621" s="9"/>
       <c r="J621" s="11"/>
-      <c r="K621" s="20" t="s">
-        <v>410</v>
-      </c>
+      <c r="K621" s="47"/>
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A622" s="39"/>
+      <c r="A622" s="39">
+        <v>44986</v>
+      </c>
       <c r="B622" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C622" s="13"/>
+        <v>46</v>
+      </c>
+      <c r="C622" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D622" s="38"/>
       <c r="E622" s="9"/>
       <c r="F622" s="20"/>
-      <c r="G622" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H622" s="38"/>
+      <c r="G622" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H622" s="38">
+        <v>1</v>
+      </c>
       <c r="I622" s="9"/>
       <c r="J622" s="11"/>
       <c r="K622" s="47">
-        <v>45035</v>
+        <v>44987</v>
       </c>
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A623" s="39">
-        <v>45047</v>
-      </c>
+      <c r="A623" s="39"/>
       <c r="B623" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C623" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D623" s="38"/>
+        <v>426</v>
+      </c>
+      <c r="C623" s="13"/>
+      <c r="D623" s="38">
+        <v>0.504</v>
+      </c>
       <c r="E623" s="9"/>
       <c r="F623" s="20"/>
-      <c r="G623" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H623" s="38">
-        <v>1</v>
-      </c>
+      <c r="G623" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H623" s="38"/>
       <c r="I623" s="9"/>
       <c r="J623" s="11"/>
-      <c r="K623" s="47">
-        <v>45044</v>
-      </c>
+      <c r="K623" s="47"/>
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A624" s="39"/>
+      <c r="A624" s="39">
+        <v>45017</v>
+      </c>
       <c r="B624" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C624" s="13"/>
+        <v>166</v>
+      </c>
+      <c r="C624" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D624" s="38"/>
       <c r="E624" s="9"/>
       <c r="F624" s="20"/>
-      <c r="G624" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G624" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H624" s="38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I624" s="9"/>
       <c r="J624" s="11"/>
-      <c r="K624" s="47">
-        <v>45056</v>
+      <c r="K624" s="20" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="39"/>
       <c r="B625" s="20" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C625" s="13"/>
       <c r="D625" s="38"/>
@@ -18113,44 +18129,38 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H625" s="38">
-        <v>1</v>
-      </c>
+      <c r="H625" s="38"/>
       <c r="I625" s="9"/>
       <c r="J625" s="11"/>
       <c r="K625" s="47">
-        <v>45071</v>
+        <v>45035</v>
       </c>
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A626" s="39">
-        <v>45078</v>
-      </c>
+      <c r="A626" s="39"/>
       <c r="B626" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C626" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D626" s="38"/>
+        <v>425</v>
+      </c>
+      <c r="C626" s="13"/>
+      <c r="D626" s="38">
+        <v>1</v>
+      </c>
       <c r="E626" s="9"/>
       <c r="F626" s="20"/>
-      <c r="G626" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H626" s="38">
-        <v>1</v>
-      </c>
+      <c r="G626" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H626" s="38"/>
       <c r="I626" s="9"/>
       <c r="J626" s="11"/>
       <c r="K626" s="47">
-        <v>45096</v>
+        <v>45030</v>
       </c>
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="39">
-        <v>45108</v>
+        <v>45047</v>
       </c>
       <c r="B627" s="20" t="s">
         <v>46</v>
@@ -18171,7 +18181,7 @@
       <c r="I627" s="9"/>
       <c r="J627" s="11"/>
       <c r="K627" s="47">
-        <v>45110</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
@@ -18193,7 +18203,7 @@
       <c r="I628" s="9"/>
       <c r="J628" s="11"/>
       <c r="K628" s="47">
-        <v>45121</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
@@ -18215,79 +18225,69 @@
       <c r="I629" s="9"/>
       <c r="J629" s="11"/>
       <c r="K629" s="47">
-        <v>45134</v>
+        <v>45071</v>
       </c>
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A630" s="39">
-        <v>45139</v>
-      </c>
+      <c r="A630" s="39"/>
       <c r="B630" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C630" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D630" s="38"/>
+        <v>424</v>
+      </c>
+      <c r="C630" s="13"/>
+      <c r="D630" s="38">
+        <v>0.127</v>
+      </c>
       <c r="E630" s="9"/>
       <c r="F630" s="20"/>
-      <c r="G630" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H630" s="38">
-        <v>1</v>
-      </c>
+      <c r="G630" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H630" s="38"/>
       <c r="I630" s="9"/>
       <c r="J630" s="11"/>
-      <c r="K630" s="47">
-        <v>45142</v>
-      </c>
+      <c r="K630" s="47"/>
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="39">
-        <v>45170</v>
+        <v>45078</v>
       </c>
       <c r="B631" s="20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C631" s="13">
         <v>1.25</v>
       </c>
-      <c r="D631" s="38">
-        <v>1</v>
-      </c>
+      <c r="D631" s="38"/>
       <c r="E631" s="9"/>
       <c r="F631" s="20"/>
       <c r="G631" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H631" s="38"/>
+      <c r="H631" s="38">
+        <v>1</v>
+      </c>
       <c r="I631" s="9"/>
       <c r="J631" s="11"/>
       <c r="K631" s="47">
-        <v>45203</v>
+        <v>45096</v>
       </c>
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A632" s="39">
-        <v>45200</v>
-      </c>
+      <c r="A632" s="39"/>
       <c r="B632" s="20" t="s">
-        <v>420</v>
-      </c>
-      <c r="C632" s="13">
-        <v>1.25</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="C632" s="13"/>
       <c r="D632" s="38">
-        <v>0.248</v>
+        <v>2.9000000000000012E-2</v>
       </c>
       <c r="E632" s="9"/>
       <c r="F632" s="20"/>
-      <c r="G632" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G632" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H632" s="38"/>
       <c r="I632" s="9"/>
@@ -18295,65 +18295,65 @@
       <c r="K632" s="47"/>
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A633" s="39"/>
+      <c r="A633" s="39">
+        <v>45108</v>
+      </c>
       <c r="B633" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C633" s="13"/>
-      <c r="D633" s="38">
-        <v>1</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C633" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D633" s="38"/>
       <c r="E633" s="9"/>
       <c r="F633" s="20"/>
-      <c r="G633" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H633" s="38"/>
+      <c r="G633" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H633" s="38">
+        <v>1</v>
+      </c>
       <c r="I633" s="9"/>
       <c r="J633" s="11"/>
       <c r="K633" s="47">
-        <v>45208</v>
+        <v>45110</v>
       </c>
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="39"/>
       <c r="B634" s="20" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C634" s="13"/>
-      <c r="D634" s="38">
-        <v>2</v>
-      </c>
+      <c r="D634" s="38"/>
       <c r="E634" s="9"/>
       <c r="F634" s="20"/>
       <c r="G634" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H634" s="38"/>
+      <c r="H634" s="38">
+        <v>1</v>
+      </c>
       <c r="I634" s="9"/>
       <c r="J634" s="11"/>
-      <c r="K634" s="47" t="s">
-        <v>418</v>
+      <c r="K634" s="47">
+        <v>45121</v>
       </c>
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A635" s="39">
-        <v>45231</v>
-      </c>
+      <c r="A635" s="39"/>
       <c r="B635" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C635" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C635" s="13"/>
       <c r="D635" s="38"/>
       <c r="E635" s="9"/>
       <c r="F635" s="20"/>
-      <c r="G635" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G635" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H635" s="38">
         <v>1</v>
@@ -18361,64 +18361,72 @@
       <c r="I635" s="9"/>
       <c r="J635" s="11"/>
       <c r="K635" s="47">
-        <v>45250</v>
+        <v>45134</v>
       </c>
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A636" s="39"/>
+      <c r="A636" s="39">
+        <v>45139</v>
+      </c>
       <c r="B636" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C636" s="13"/>
-      <c r="D636" s="38">
-        <v>0.11700000000000001</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C636" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D636" s="38"/>
       <c r="E636" s="9"/>
       <c r="F636" s="20"/>
-      <c r="G636" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H636" s="38"/>
+      <c r="G636" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H636" s="38">
+        <v>1</v>
+      </c>
       <c r="I636" s="9"/>
       <c r="J636" s="11"/>
-      <c r="K636" s="47"/>
+      <c r="K636" s="47">
+        <v>45142</v>
+      </c>
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="39">
-        <v>45261</v>
+        <v>45170</v>
       </c>
       <c r="B637" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C637" s="40">
-        <v>1.25</v>
-      </c>
-      <c r="D637" s="41"/>
-      <c r="E637" s="51"/>
-      <c r="F637" s="15"/>
-      <c r="G637" s="40">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H637" s="41"/>
-      <c r="I637" s="51"/>
-      <c r="J637" s="12"/>
-      <c r="K637" s="48">
-        <v>45288</v>
+        <v>45</v>
+      </c>
+      <c r="C637" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D637" s="38">
+        <v>1</v>
+      </c>
+      <c r="E637" s="9"/>
+      <c r="F637" s="20"/>
+      <c r="G637" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H637" s="38"/>
+      <c r="I637" s="9"/>
+      <c r="J637" s="11"/>
+      <c r="K637" s="47">
+        <v>45203</v>
       </c>
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A638" s="46" t="s">
-        <v>419</v>
-      </c>
-      <c r="B638" s="20"/>
+      <c r="A638" s="39"/>
+      <c r="B638" s="20" t="s">
+        <v>421</v>
+      </c>
       <c r="C638" s="13"/>
-      <c r="D638" s="38"/>
+      <c r="D638" s="38">
+        <v>2</v>
+      </c>
       <c r="E638" s="9"/>
-      <c r="F638" s="20" t="s">
-        <v>421</v>
-      </c>
+      <c r="F638" s="20"/>
       <c r="G638" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -18426,33 +18434,43 @@
       <c r="H638" s="38"/>
       <c r="I638" s="9"/>
       <c r="J638" s="11"/>
-      <c r="K638" s="47"/>
+      <c r="K638" s="47" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="39">
-        <v>45292</v>
-      </c>
-      <c r="B639" s="20"/>
-      <c r="C639" s="13"/>
-      <c r="D639" s="38"/>
+        <v>45200</v>
+      </c>
+      <c r="B639" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="C639" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D639" s="38">
+        <v>0.248</v>
+      </c>
       <c r="E639" s="9"/>
       <c r="F639" s="20"/>
-      <c r="G639" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G639" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H639" s="38"/>
       <c r="I639" s="9"/>
       <c r="J639" s="11"/>
-      <c r="K639" s="20"/>
+      <c r="K639" s="47"/>
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A640" s="39">
-        <v>45323</v>
-      </c>
-      <c r="B640" s="20"/>
+      <c r="A640" s="39"/>
+      <c r="B640" s="20" t="s">
+        <v>131</v>
+      </c>
       <c r="C640" s="13"/>
-      <c r="D640" s="38"/>
+      <c r="D640" s="38">
+        <v>1</v>
+      </c>
       <c r="E640" s="9"/>
       <c r="F640" s="20"/>
       <c r="G640" s="13" t="str">
@@ -18462,15 +18480,19 @@
       <c r="H640" s="38"/>
       <c r="I640" s="9"/>
       <c r="J640" s="11"/>
-      <c r="K640" s="20"/>
+      <c r="K640" s="47">
+        <v>45208</v>
+      </c>
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A641" s="39">
-        <v>45352</v>
-      </c>
-      <c r="B641" s="20"/>
+      <c r="A641" s="39"/>
+      <c r="B641" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C641" s="13"/>
-      <c r="D641" s="38"/>
+      <c r="D641" s="38">
+        <v>2</v>
+      </c>
       <c r="E641" s="9"/>
       <c r="F641" s="20"/>
       <c r="G641" s="13" t="str">
@@ -18480,33 +18502,45 @@
       <c r="H641" s="38"/>
       <c r="I641" s="9"/>
       <c r="J641" s="11"/>
-      <c r="K641" s="20"/>
+      <c r="K641" s="47" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="39">
-        <v>45383</v>
-      </c>
-      <c r="B642" s="20"/>
-      <c r="C642" s="13"/>
+        <v>45231</v>
+      </c>
+      <c r="B642" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C642" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D642" s="38"/>
       <c r="E642" s="9"/>
       <c r="F642" s="20"/>
-      <c r="G642" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H642" s="38"/>
+      <c r="G642" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H642" s="38">
+        <v>1</v>
+      </c>
       <c r="I642" s="9"/>
       <c r="J642" s="11"/>
-      <c r="K642" s="20"/>
+      <c r="K642" s="47">
+        <v>45250</v>
+      </c>
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A643" s="39">
-        <v>45413</v>
-      </c>
-      <c r="B643" s="20"/>
+      <c r="A643" s="39"/>
+      <c r="B643" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C643" s="13"/>
-      <c r="D643" s="38"/>
+      <c r="D643" s="38">
+        <v>0.11700000000000001</v>
+      </c>
       <c r="E643" s="9"/>
       <c r="F643" s="20"/>
       <c r="G643" s="13" t="str">
@@ -18516,33 +18550,41 @@
       <c r="H643" s="38"/>
       <c r="I643" s="9"/>
       <c r="J643" s="11"/>
-      <c r="K643" s="20"/>
+      <c r="K643" s="47"/>
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="39">
-        <v>45444</v>
-      </c>
-      <c r="B644" s="20"/>
-      <c r="C644" s="13"/>
-      <c r="D644" s="38"/>
-      <c r="E644" s="9"/>
-      <c r="F644" s="20"/>
-      <c r="G644" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H644" s="38"/>
-      <c r="I644" s="9"/>
-      <c r="J644" s="11"/>
-      <c r="K644" s="20"/>
+        <v>45261</v>
+      </c>
+      <c r="B644" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C644" s="40">
+        <v>1.25</v>
+      </c>
+      <c r="D644" s="41"/>
+      <c r="E644" s="51"/>
+      <c r="F644" s="15"/>
+      <c r="G644" s="40">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H644" s="41"/>
+      <c r="I644" s="51"/>
+      <c r="J644" s="12"/>
+      <c r="K644" s="48">
+        <v>45288</v>
+      </c>
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A645" s="39">
-        <v>45474</v>
-      </c>
-      <c r="B645" s="20"/>
+      <c r="A645" s="39"/>
+      <c r="B645" s="20" t="s">
+        <v>429</v>
+      </c>
       <c r="C645" s="13"/>
-      <c r="D645" s="38"/>
+      <c r="D645" s="38">
+        <v>0.14400000000000002</v>
+      </c>
       <c r="E645" s="9"/>
       <c r="F645" s="20"/>
       <c r="G645" s="13" t="str">
@@ -18552,11 +18594,11 @@
       <c r="H645" s="38"/>
       <c r="I645" s="9"/>
       <c r="J645" s="11"/>
-      <c r="K645" s="20"/>
+      <c r="K645" s="47"/>
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A646" s="39">
-        <v>45505</v>
+      <c r="A646" s="46" t="s">
+        <v>419</v>
       </c>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -18570,10 +18612,12 @@
       <c r="H646" s="38"/>
       <c r="I646" s="9"/>
       <c r="J646" s="11"/>
-      <c r="K646" s="20"/>
+      <c r="K646" s="47"/>
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A647" s="39"/>
+      <c r="A647" s="39">
+        <v>45292</v>
+      </c>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
       <c r="D647" s="38"/>
@@ -18589,7 +18633,9 @@
       <c r="K647" s="20"/>
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A648" s="39"/>
+      <c r="A648" s="39">
+        <v>45323</v>
+      </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
       <c r="D648" s="38"/>
@@ -18605,7 +18651,9 @@
       <c r="K648" s="20"/>
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A649" s="39"/>
+      <c r="A649" s="39">
+        <v>45352</v>
+      </c>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
       <c r="D649" s="38"/>
@@ -18621,7 +18669,9 @@
       <c r="K649" s="20"/>
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A650" s="39"/>
+      <c r="A650" s="39">
+        <v>45383</v>
+      </c>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
       <c r="D650" s="38"/>
@@ -18637,7 +18687,9 @@
       <c r="K650" s="20"/>
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A651" s="39"/>
+      <c r="A651" s="39">
+        <v>45413</v>
+      </c>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
       <c r="D651" s="38"/>
@@ -18653,20 +18705,154 @@
       <c r="K651" s="20"/>
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A652" s="53"/>
-      <c r="B652" s="15"/>
-      <c r="C652" s="40"/>
-      <c r="D652" s="41"/>
-      <c r="E652" s="51"/>
-      <c r="F652" s="15"/>
-      <c r="G652" s="40" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H652" s="41"/>
-      <c r="I652" s="51"/>
-      <c r="J652" s="12"/>
-      <c r="K652" s="15"/>
+      <c r="A652" s="39">
+        <v>45444</v>
+      </c>
+      <c r="B652" s="20"/>
+      <c r="C652" s="13"/>
+      <c r="D652" s="38"/>
+      <c r="E652" s="9"/>
+      <c r="F652" s="20"/>
+      <c r="G652" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H652" s="38"/>
+      <c r="I652" s="9"/>
+      <c r="J652" s="11"/>
+      <c r="K652" s="20"/>
+    </row>
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A653" s="39">
+        <v>45474</v>
+      </c>
+      <c r="B653" s="20"/>
+      <c r="C653" s="13"/>
+      <c r="D653" s="38"/>
+      <c r="E653" s="9"/>
+      <c r="F653" s="20"/>
+      <c r="G653" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H653" s="38"/>
+      <c r="I653" s="9"/>
+      <c r="J653" s="11"/>
+      <c r="K653" s="20"/>
+    </row>
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A654" s="39">
+        <v>45505</v>
+      </c>
+      <c r="B654" s="20"/>
+      <c r="C654" s="13"/>
+      <c r="D654" s="38"/>
+      <c r="E654" s="9"/>
+      <c r="F654" s="20"/>
+      <c r="G654" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H654" s="38"/>
+      <c r="I654" s="9"/>
+      <c r="J654" s="11"/>
+      <c r="K654" s="20"/>
+    </row>
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A655" s="39"/>
+      <c r="B655" s="20"/>
+      <c r="C655" s="13"/>
+      <c r="D655" s="38"/>
+      <c r="E655" s="9"/>
+      <c r="F655" s="20"/>
+      <c r="G655" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H655" s="38"/>
+      <c r="I655" s="9"/>
+      <c r="J655" s="11"/>
+      <c r="K655" s="20"/>
+    </row>
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A656" s="39"/>
+      <c r="B656" s="20"/>
+      <c r="C656" s="13"/>
+      <c r="D656" s="38"/>
+      <c r="E656" s="9"/>
+      <c r="F656" s="20"/>
+      <c r="G656" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H656" s="38"/>
+      <c r="I656" s="9"/>
+      <c r="J656" s="11"/>
+      <c r="K656" s="20"/>
+    </row>
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A657" s="39"/>
+      <c r="B657" s="20"/>
+      <c r="C657" s="13"/>
+      <c r="D657" s="38"/>
+      <c r="E657" s="9"/>
+      <c r="F657" s="20"/>
+      <c r="G657" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H657" s="38"/>
+      <c r="I657" s="9"/>
+      <c r="J657" s="11"/>
+      <c r="K657" s="20"/>
+    </row>
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A658" s="39"/>
+      <c r="B658" s="20"/>
+      <c r="C658" s="13"/>
+      <c r="D658" s="38"/>
+      <c r="E658" s="9"/>
+      <c r="F658" s="20"/>
+      <c r="G658" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H658" s="38"/>
+      <c r="I658" s="9"/>
+      <c r="J658" s="11"/>
+      <c r="K658" s="20"/>
+    </row>
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A659" s="39"/>
+      <c r="B659" s="20"/>
+      <c r="C659" s="13"/>
+      <c r="D659" s="38"/>
+      <c r="E659" s="9"/>
+      <c r="F659" s="20"/>
+      <c r="G659" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H659" s="38"/>
+      <c r="I659" s="9"/>
+      <c r="J659" s="11"/>
+      <c r="K659" s="20"/>
+    </row>
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A660" s="53"/>
+      <c r="B660" s="15"/>
+      <c r="C660" s="40"/>
+      <c r="D660" s="41"/>
+      <c r="E660" s="51"/>
+      <c r="F660" s="15"/>
+      <c r="G660" s="40" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H660" s="41"/>
+      <c r="I660" s="51"/>
+      <c r="J660" s="12"/>
+      <c r="K660" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18785,11 +18971,11 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.248</v>
+        <v>0.14400000000000002</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="34">
@@ -18838,7 +19024,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>227.11599999999993</v>
+        <v>222.89699999999993</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>

--- a/REGULAR/ACCOUNTING/MIRANDA, MARIA LOIDA.xlsx
+++ b/REGULAR/ACCOUNTING/MIRANDA, MARIA LOIDA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="430">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2214,7 +2214,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2257,7 +2257,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2321,7 +2321,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2381,7 +2381,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2447,7 +2447,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2510,7 +2510,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2608,7 +2608,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2667,7 +2667,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2732,7 +2732,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2775,7 +2775,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2850,7 +2850,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3036,7 +3036,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3102,7 +3102,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3160,7 +3160,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3226,7 +3226,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3282,7 +3282,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3357,7 +3357,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3400,7 +3400,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3466,7 +3466,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3522,7 +3522,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3620,7 +3620,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3683,7 +3683,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4132,7 +4132,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A625" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="F649" sqref="F649"/>
+      <selection pane="bottomLeft" activeCell="K647" sqref="K647"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4309,7 +4309,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>102.27600000000002</v>
+        <v>101.27600000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -18618,7 +18618,9 @@
       <c r="A647" s="39">
         <v>45292</v>
       </c>
-      <c r="B647" s="20"/>
+      <c r="B647" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C647" s="13"/>
       <c r="D647" s="38"/>
       <c r="E647" s="9"/>
@@ -18627,10 +18629,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H647" s="38"/>
+      <c r="H647" s="38">
+        <v>1</v>
+      </c>
       <c r="I647" s="9"/>
       <c r="J647" s="11"/>
-      <c r="K647" s="20"/>
+      <c r="K647" s="47">
+        <v>45293</v>
+      </c>
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="39">
@@ -19024,7 +19030,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>222.89699999999993</v>
+        <v>221.89699999999993</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>
